--- a/OpenDsWeb/downloads/cnt-0.xlsx
+++ b/OpenDsWeb/downloads/cnt-0.xlsx
@@ -14,153 +14,726 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <x:si>
-    <x:t>UF</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+  <x:si>
+    <x:t>CIDADE</x:t>
   </x:si>
   <x:si>
     <x:t>Registros</x:t>
   </x:si>
   <x:si>
-    <x:t>SP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PI</x:t>
+    <x:t>GUARATINGUETA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PINDAMONHANGABA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TREMEMBE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IGUAPE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPIRA</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>BA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PA</x:t>
+    <x:t>BOFETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITATINGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAUBATE</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>CE</x:t>
+    <x:t>ITAPEVA</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>PE</x:t>
+    <x:t>BARRA DO TURVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARGEM GRANDE DO SUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARARAQUARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO PAULO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TARUMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGISTRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CACAPAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUAPIARA</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>RJ</x:t>
+    <x:t>ITABERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPETININGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAPAO BONITO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARTUR NOGUEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITOBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOTUCATU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITARARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOTUCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SETE BARRAS</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>RO</x:t>
+    <x:t>PARANAPANEMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE BONIFACIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CASA BRANCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOGI GUACU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOGI MIRIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POTIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IARAS</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>DF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SE</x:t>
+    <x:t>APIAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELDORADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO JOSE DO RIO PARDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAQUARITUBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROMISSAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO PEDRO DO TURVO</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>AC</x:t>
+    <x:t>RESTINGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TORRINHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRUZEIRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIRIGUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUMARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGATUBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUATAPARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOREBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO JOAO DA BOA VISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CEDRAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONTE APRAZIVEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONTE MOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVARE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLORINEA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOVO HORIZONTE</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>RN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EX</x:t>
+    <x:t>ADAMANTINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COSMORAMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OURINHOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIRACICABA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGUAS DE SANTA BARBARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOROCABA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUAREI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UCHOA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOCOCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APARECIDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOITUVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANABI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO JOSE DOS CAMPOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONCHAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPEUNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FARTURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRAPUA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITUVERAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARIRI</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>PB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AM</x:t>
+    <x:t>CORUMBATAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRAPURU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PINHALZINHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTA CRUZ DO RIO PARDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGUAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAIABU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERRA AZUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAJOBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAGUARIUNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIRAJU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALTO ALEGRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUNHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANDIDO MOTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIRASSOL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO BENTO DO SAPUCAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DUARTINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARIQUERA-ACU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PORTO FELIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPIRAPUA PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZACARIAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPOLIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIMEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAMBAU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARARAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESPIRITO SANTO DO PINHAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESTIVA GERBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATIBAIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BURITIZAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEREIRA BARRETO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IPORANGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CORONEL MACEDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TATUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CACHOEIRA PAULISTA</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>RR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL</x:t>
+    <x:t>GETULINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JABORANDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARAPOAMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REGENTE FEIJO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTA ADELIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARRA DO CHAPEU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CACONDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JACAREI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OSCAR BRESSANE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIRACAIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SARUTAIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRUZALIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUARANTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JACUPIRANGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUELOPOLIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTA ERNESTINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARRETOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAJURU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUARARAPES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIRACATU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PALMEIRA DOESTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTA MERCEDES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAOCA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIRANTE DO PARANAPANEMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PALMITAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIRASSUNUNGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO BONITO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTO ANTONIO DE POSSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TURMALINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALVARES MACHADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIRITIBA-MIRIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESCALVADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PITANGUEIRAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO BRANCO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DRACENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARDINHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLANALTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO CORRENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO CARLOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUZANAPOLIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALPARAISO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPEVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUNQUEIROPOLIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOGI DAS CRUZES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POMPEIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO DO SUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO FRANCISCO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABATINGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARGEM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CASTILHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IGARACU DO TIETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATROCINIO PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO GRANDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TABOAO DA SERRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARANDU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELIAS FAUSTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IGARAPAVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LENCOIS PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEDRA BELA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PORTO FERREIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIBEIRAO PRETO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO JOSE DA BELA VISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TACIBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRAGANCA PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CERQUEIRA CESAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMBAUBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONTE ALTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEDREGULHO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RINCAO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRODOWSKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CESARIO LANGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INDAIATUBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITAPORANGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEDRINHAS PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRACINHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIO CLARO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO JOSE DO RIO PRETO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BURI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLEMENTINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUCELIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEDRO DE TOLEDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRESIDENTE BERNARDES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIO DAS PEDRAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TAQUARAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUCLIDES DA CUNHA PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUPERCIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRESIDENTE PRUDENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIOLANDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO MIGUEL ARCANJO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CABRALIA PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COROADOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MACATUBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAZARE PAULISTA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIEDADE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BADY BASSITT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAIRIPORA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOVA CAMPINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QUADRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALTO GRANDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAO PEDRO</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -224,10 +797,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Arquivo" displayName="Arquivo" ref="A1:B27" totalsRowShown="0">
-  <x:autoFilter ref="A1:B27"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Arquivo" displayName="Arquivo" ref="A1:B218" totalsRowShown="0">
+  <x:autoFilter ref="A1:B218"/>
   <x:tableColumns count="2">
-    <x:tableColumn id="1" name="UF"/>
+    <x:tableColumn id="1" name="CIDADE"/>
     <x:tableColumn id="2" name="Registros"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -522,7 +1095,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B27"/>
+  <x:dimension ref="A1:B218"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -623,127 +1196,1655 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="B32" s="0" t="s">
         <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2">
+      <x:c r="A46" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2">
+      <x:c r="A47" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2">
+      <x:c r="A48" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="A49" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2">
+      <x:c r="A50" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2">
+      <x:c r="A51" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:2">
+      <x:c r="A52" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="A53" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:2">
+      <x:c r="A54" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2">
+      <x:c r="A55" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:2">
+      <x:c r="A56" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="A57" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2">
+      <x:c r="A58" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="A59" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:2">
+      <x:c r="A60" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="A61" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:2">
+      <x:c r="A62" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:2">
+      <x:c r="A63" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:2">
+      <x:c r="A64" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:2">
+      <x:c r="A65" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:2">
+      <x:c r="A66" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2">
+      <x:c r="A67" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:2">
+      <x:c r="A68" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:2">
+      <x:c r="A70" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2">
+      <x:c r="A72" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:2">
+      <x:c r="A74" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2">
+      <x:c r="A75" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:2">
+      <x:c r="A76" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:2">
+      <x:c r="A77" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:2">
+      <x:c r="A78" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2">
+      <x:c r="A79" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:2">
+      <x:c r="A80" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2">
+      <x:c r="A81" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:2">
+      <x:c r="A82" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="A83" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:2">
+      <x:c r="A84" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="A85" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:2">
+      <x:c r="A86" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:2">
+      <x:c r="A88" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2">
+      <x:c r="A89" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:2">
+      <x:c r="A90" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:2">
+      <x:c r="A91" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:2">
+      <x:c r="A92" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:2">
+      <x:c r="A93" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:2">
+      <x:c r="A94" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:2">
+      <x:c r="A95" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2">
+      <x:c r="A96" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2">
+      <x:c r="A97" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:2">
+      <x:c r="A98" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:2">
+      <x:c r="A99" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:2">
+      <x:c r="A100" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2">
+      <x:c r="A102" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2">
+      <x:c r="A103" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:2">
+      <x:c r="A104" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:2">
+      <x:c r="A105" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:2">
+      <x:c r="A106" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:2">
+      <x:c r="A107" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:2">
+      <x:c r="A108" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:2">
+      <x:c r="A109" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:2">
+      <x:c r="A110" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:2">
+      <x:c r="A111" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:2">
+      <x:c r="A112" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:2">
+      <x:c r="A113" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:2">
+      <x:c r="A114" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:2">
+      <x:c r="A115" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:2">
+      <x:c r="A116" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:2">
+      <x:c r="A117" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:2">
+      <x:c r="A118" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:2">
+      <x:c r="A119" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:2">
+      <x:c r="A120" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:2">
+      <x:c r="A123" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:2">
+      <x:c r="A124" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:2">
+      <x:c r="A125" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:2">
+      <x:c r="A126" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:2">
+      <x:c r="A127" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:2">
+      <x:c r="A128" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:2">
+      <x:c r="A129" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:2">
+      <x:c r="A130" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:2">
+      <x:c r="A131" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:2">
+      <x:c r="A132" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:2">
+      <x:c r="A133" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:2">
+      <x:c r="A134" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:2">
+      <x:c r="A135" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:2">
+      <x:c r="A136" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:2">
+      <x:c r="A137" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:2">
+      <x:c r="A138" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:2">
+      <x:c r="A139" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:2">
+      <x:c r="A140" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:2">
+      <x:c r="A141" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:2">
+      <x:c r="A142" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:2">
+      <x:c r="A143" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:2">
+      <x:c r="A144" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:2">
+      <x:c r="A145" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:2">
+      <x:c r="A146" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:2">
+      <x:c r="A147" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:2">
+      <x:c r="A148" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:2">
+      <x:c r="A149" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:2">
+      <x:c r="A150" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:2">
+      <x:c r="A151" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:2">
+      <x:c r="A152" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:2">
+      <x:c r="A153" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:2">
+      <x:c r="A154" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" spans="1:2">
+      <x:c r="A155" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" spans="1:2">
+      <x:c r="A156" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:2">
+      <x:c r="A157" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:2">
+      <x:c r="A158" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:2">
+      <x:c r="A159" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" spans="1:2">
+      <x:c r="A160" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:2">
+      <x:c r="A161" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:2">
+      <x:c r="A162" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:2">
+      <x:c r="A163" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:2">
+      <x:c r="A164" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:2">
+      <x:c r="A165" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:2">
+      <x:c r="A166" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:2">
+      <x:c r="A167" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:2">
+      <x:c r="A168" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:2">
+      <x:c r="A169" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:2">
+      <x:c r="A170" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="1:2">
+      <x:c r="A171" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B171" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:2">
+      <x:c r="A172" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="1:2">
+      <x:c r="A173" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:2">
+      <x:c r="A174" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:2">
+      <x:c r="A175" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:2">
+      <x:c r="A176" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:2">
+      <x:c r="A177" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:2">
+      <x:c r="A178" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:2">
+      <x:c r="A179" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:2">
+      <x:c r="A180" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:2">
+      <x:c r="A181" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:2">
+      <x:c r="A182" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:2">
+      <x:c r="A183" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" spans="1:2">
+      <x:c r="A184" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" spans="1:2">
+      <x:c r="A185" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="1:2">
+      <x:c r="A186" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" spans="1:2">
+      <x:c r="A187" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" spans="1:2">
+      <x:c r="A188" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" spans="1:2">
+      <x:c r="A189" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:2">
+      <x:c r="A190" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:2">
+      <x:c r="A191" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:2">
+      <x:c r="A192" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:2">
+      <x:c r="A193" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:2">
+      <x:c r="A194" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" spans="1:2">
+      <x:c r="A195" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="1:2">
+      <x:c r="A196" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="1:2">
+      <x:c r="A197" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="1:2">
+      <x:c r="A198" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="1:2">
+      <x:c r="A199" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" spans="1:2">
+      <x:c r="A200" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" spans="1:2">
+      <x:c r="A201" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" spans="1:2">
+      <x:c r="A202" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" spans="1:2">
+      <x:c r="A203" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" spans="1:2">
+      <x:c r="A204" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" spans="1:2">
+      <x:c r="A205" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" spans="1:2">
+      <x:c r="A206" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:2">
+      <x:c r="A207" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" spans="1:2">
+      <x:c r="A208" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" spans="1:2">
+      <x:c r="A209" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" spans="1:2">
+      <x:c r="A210" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:2">
+      <x:c r="A211" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" spans="1:2">
+      <x:c r="A212" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" spans="1:2">
+      <x:c r="A213" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" spans="1:2">
+      <x:c r="A214" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:2">
+      <x:c r="A215" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" spans="1:2">
+      <x:c r="A216" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:2">
+      <x:c r="A217" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" spans="1:2">
+      <x:c r="A218" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
